--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H2">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I2">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J2">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.416004</v>
       </c>
       <c r="O2">
-        <v>0.4407629788086163</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5417522913557481</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>5.75864422438</v>
+        <v>6.096255552389332</v>
       </c>
       <c r="R2">
-        <v>51.82779801942</v>
+        <v>54.86629997150399</v>
       </c>
       <c r="S2">
-        <v>0.06076654282765494</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="T2">
-        <v>0.07906321684151828</v>
+        <v>0.1297146081693155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.528285</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H3">
-        <v>124.584855</v>
+        <v>216.066395</v>
       </c>
       <c r="I3">
-        <v>0.137866712381124</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J3">
-        <v>0.145939792231724</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.175941</v>
+        <v>0.138668</v>
       </c>
       <c r="N3">
-        <v>0.351882</v>
+        <v>0.416004</v>
       </c>
       <c r="O3">
-        <v>0.5592370211913836</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4582477086442518</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>7.306527991185002</v>
+        <v>9.987164953953332</v>
       </c>
       <c r="R3">
-        <v>43.83916794711001</v>
+        <v>89.88448458558</v>
       </c>
       <c r="S3">
-        <v>0.07710016955346902</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="T3">
-        <v>0.06687657539020571</v>
+        <v>0.212504409894141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.02213166666667</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H4">
-        <v>216.066395</v>
+        <v>225.82763</v>
       </c>
       <c r="I4">
-        <v>0.2391010009578718</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J4">
-        <v>0.2531020708300187</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.416004</v>
       </c>
       <c r="O4">
-        <v>0.4407629788086163</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5417522913557481</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>9.987164953953332</v>
+        <v>10.43835526561333</v>
       </c>
       <c r="R4">
-        <v>89.88448458558</v>
+        <v>93.94519739051999</v>
       </c>
       <c r="S4">
-        <v>0.1053868694183134</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="T4">
-        <v>0.1371186268190475</v>
+        <v>0.2221047250357578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.02213166666667</v>
+        <v>87.99833699999999</v>
       </c>
       <c r="H5">
-        <v>216.066395</v>
+        <v>175.996674</v>
       </c>
       <c r="I5">
-        <v>0.2391010009578718</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="J5">
-        <v>0.2531020708300187</v>
+        <v>0.1730952624618072</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.175941</v>
+        <v>0.138668</v>
       </c>
       <c r="N5">
-        <v>0.351882</v>
+        <v>0.416004</v>
       </c>
       <c r="O5">
-        <v>0.5592370211913836</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4582477086442518</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>12.671645867565</v>
+        <v>12.202553395116</v>
       </c>
       <c r="R5">
-        <v>76.02987520539001</v>
+        <v>73.21532037069599</v>
       </c>
       <c r="S5">
-        <v>0.1337141315395584</v>
+        <v>0.2389613545046087</v>
       </c>
       <c r="T5">
-        <v>0.1159834440109712</v>
+        <v>0.1730952624618072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.33487700000001</v>
+        <v>88.99412</v>
       </c>
       <c r="H6">
-        <v>196.004631</v>
+        <v>266.98236</v>
       </c>
       <c r="I6">
-        <v>0.2169004738773853</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="J6">
-        <v>0.2296015444621718</v>
+        <v>0.2625809944389785</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.416004</v>
       </c>
       <c r="O6">
-        <v>0.4407629788086163</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.5417522913557481</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>9.059856723835999</v>
+        <v>12.34063663216</v>
       </c>
       <c r="R6">
-        <v>81.538710514524</v>
+        <v>111.06572968944</v>
       </c>
       <c r="S6">
-        <v>0.0956016989711968</v>
+        <v>0.24166542440621</v>
       </c>
       <c r="T6">
-        <v>0.1243871628112003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>65.33487700000001</v>
-      </c>
-      <c r="H7">
-        <v>196.004631</v>
-      </c>
-      <c r="I7">
-        <v>0.2169004738773853</v>
-      </c>
-      <c r="J7">
-        <v>0.2296015444621718</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.175941</v>
-      </c>
-      <c r="N7">
-        <v>0.351882</v>
-      </c>
-      <c r="O7">
-        <v>0.5592370211913836</v>
-      </c>
-      <c r="P7">
-        <v>0.4582477086442518</v>
-      </c>
-      <c r="Q7">
-        <v>11.495083594257</v>
-      </c>
-      <c r="R7">
-        <v>68.97050156554201</v>
-      </c>
-      <c r="S7">
-        <v>0.1212987749061885</v>
-      </c>
-      <c r="T7">
-        <v>0.1052143816509716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>49.988644</v>
-      </c>
-      <c r="H8">
-        <v>99.977288</v>
-      </c>
-      <c r="I8">
-        <v>0.1659536386987904</v>
-      </c>
-      <c r="J8">
-        <v>0.1171142723456333</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.138668</v>
-      </c>
-      <c r="N8">
-        <v>0.416004</v>
-      </c>
-      <c r="O8">
-        <v>0.4407629788086163</v>
-      </c>
-      <c r="P8">
-        <v>0.5417522913557481</v>
-      </c>
-      <c r="Q8">
-        <v>6.931825286192</v>
-      </c>
-      <c r="R8">
-        <v>41.590951717152</v>
-      </c>
-      <c r="S8">
-        <v>0.07314622013700774</v>
-      </c>
-      <c r="T8">
-        <v>0.06344692539370796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>49.988644</v>
-      </c>
-      <c r="H9">
-        <v>99.977288</v>
-      </c>
-      <c r="I9">
-        <v>0.1659536386987904</v>
-      </c>
-      <c r="J9">
-        <v>0.1171142723456333</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.175941</v>
-      </c>
-      <c r="N9">
-        <v>0.351882</v>
-      </c>
-      <c r="O9">
-        <v>0.5592370211913836</v>
-      </c>
-      <c r="P9">
-        <v>0.4582477086442518</v>
-      </c>
-      <c r="Q9">
-        <v>8.795052014004002</v>
-      </c>
-      <c r="R9">
-        <v>35.18020805601601</v>
-      </c>
-      <c r="S9">
-        <v>0.09280741856178269</v>
-      </c>
-      <c r="T9">
-        <v>0.05366734695192532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>72.34659833333335</v>
-      </c>
-      <c r="H10">
-        <v>217.039795</v>
-      </c>
-      <c r="I10">
-        <v>0.2401781740848285</v>
-      </c>
-      <c r="J10">
-        <v>0.2542423201304522</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.138668</v>
-      </c>
-      <c r="N10">
-        <v>0.416004</v>
-      </c>
-      <c r="O10">
-        <v>0.4407629788086163</v>
-      </c>
-      <c r="P10">
-        <v>0.5417522913557481</v>
-      </c>
-      <c r="Q10">
-        <v>10.03215809768667</v>
-      </c>
-      <c r="R10">
-        <v>90.28942287918001</v>
-      </c>
-      <c r="S10">
-        <v>0.1058616474544434</v>
-      </c>
-      <c r="T10">
-        <v>0.1377363594902741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>72.34659833333335</v>
-      </c>
-      <c r="H11">
-        <v>217.039795</v>
-      </c>
-      <c r="I11">
-        <v>0.2401781740848285</v>
-      </c>
-      <c r="J11">
-        <v>0.2542423201304522</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.175941</v>
-      </c>
-      <c r="N11">
-        <v>0.351882</v>
-      </c>
-      <c r="O11">
-        <v>0.5592370211913836</v>
-      </c>
-      <c r="P11">
-        <v>0.4582477086442518</v>
-      </c>
-      <c r="Q11">
-        <v>12.728732857365</v>
-      </c>
-      <c r="R11">
-        <v>76.37239714419002</v>
-      </c>
-      <c r="S11">
-        <v>0.134316526630385</v>
-      </c>
-      <c r="T11">
-        <v>0.1165059606401781</v>
+        <v>0.2625809944389785</v>
       </c>
     </row>
   </sheetData>
